--- a/_2/Чек-Лист Заказ билетов.xlsx
+++ b/_2/Чек-Лист Заказ билетов.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8610" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Выбор" sheetId="1" r:id="rId1"/>
@@ -285,28 +285,10 @@
     <t>4 (adults-2; children-1; infants-1)</t>
   </si>
   <si>
-    <t>проверка поля "PASSENGERS" на выбор минимального валидного значения (1 взрослый)</t>
-  </si>
-  <si>
-    <t>проверка поля "PASSENGERS" на выбор максимального валидного значения (9)</t>
-  </si>
-  <si>
     <t>9 (adults-4; children-3; infants-2)</t>
   </si>
   <si>
-    <t>проверка поля "PASSENGERS" на выбор не валидного значения 
-(1 младенец)</t>
-  </si>
-  <si>
-    <t>проверка поля "PASSENGERS" на выбор не валидного значения 
-(0)</t>
-  </si>
-  <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>проверка поля "PASSENGERS" на выбор не валидного значения 
-(10)</t>
   </si>
   <si>
     <t>Test
@@ -1086,9 +1068,6 @@
   </si>
   <si>
     <t xml:space="preserve"> не подтверждается</t>
-  </si>
-  <si>
-    <t xml:space="preserve">проверка поля "PASSENGERS" на выбор  валидного значения </t>
   </si>
   <si>
     <t>Bk_8_1</t>
@@ -1222,9 +1201,6 @@
     </r>
   </si>
   <si>
-    <t>проверка поля "PASSENGERS" на выбор валидного значения (2 ребёнка)</t>
-  </si>
-  <si>
     <t>Bk_1_5</t>
   </si>
   <si>
@@ -2721,6 +2697,185 @@
   <si>
     <t>pass one way 
 (radio-button set on 'ONE WAY')</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">проверка поля </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"PASSENGERS"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> на выбор  валидного значения </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">проверка поля </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"PASSENGERS"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> на выбор минимального валидного значения (1 взрослый)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">проверка поля </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"PASSENGERS"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> на выбор валидного значения (2 ребёнка)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">проверка поля </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"PASSENGERS"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> на выбор максимального валидного значения (9)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">проверка поля </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"PASSENGERS"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> на выбор не валидного значения 
+(1 младенец)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">проверка поля </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"PASSENGERS"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> на выбор не валидного значения 
+(0)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">проверка поля </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"PASSENGERS"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> на выбор не валидного значения 
+(10)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3492,8 +3647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:S62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:I46"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3516,7 +3671,7 @@
   <sheetData>
     <row r="2" spans="1:9" ht="34.5" customHeight="1">
       <c r="A2" s="40" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B2" s="40"/>
       <c r="C2" s="44" t="s">
@@ -3531,7 +3686,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="41" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B3" s="42"/>
       <c r="C3" s="42"/>
@@ -3550,7 +3705,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -3573,10 +3728,10 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="23" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="3" t="s">
@@ -3593,18 +3748,18 @@
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="26.25">
       <c r="A6" s="23" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -3628,13 +3783,13 @@
     </row>
     <row r="7" spans="1:9" ht="26.25">
       <c r="A7" s="23" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -3658,10 +3813,10 @@
     </row>
     <row r="8" spans="1:9" ht="63.75">
       <c r="A8" s="23" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C8" s="34" t="str">
         <f ca="1">"radio-button set on 'RETURN'"&amp;"
@@ -3672,7 +3827,7 @@
         <v>radio-button set on 'RETURN'
 'FLIGHT FROM': Kharkiv (HRK)
 'FLIGHT TO': Batumi (BUS)
-"DEPARTURE DATE" : 21.12.2019 to 19.02.2020
+"DEPARTURE DATE" : 22.12.2019 to 20.02.2020
 "RETURN DATE":</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -3689,15 +3844,15 @@
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="11" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="63.75">
       <c r="A9" s="24" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C9" s="34" t="str">
         <f ca="1">"radio-button set on 'RETURN'"&amp;"
@@ -3709,7 +3864,7 @@
 'FLIGHT FROM': Kharkiv (HRK)
 'FLIGHT TO': Batumi (BUS)
 "DEPARTURE DATE" : 
-"RETURN DATE":21.12.2019 to 19.02.2020</v>
+"RETURN DATE":22.12.2019 to 20.02.2020</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>17</v>
@@ -3725,15 +3880,15 @@
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="11" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="23" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="3" t="s">
@@ -3756,7 +3911,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="23" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>13</v>
@@ -3776,18 +3931,18 @@
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="24" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>17</v>
@@ -3809,13 +3964,13 @@
     </row>
     <row r="13" spans="1:9" ht="25.5">
       <c r="A13" s="23" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>17</v>
@@ -3831,13 +3986,13 @@
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="23"/>
       <c r="B14" s="6" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="3"/>
@@ -3850,7 +4005,7 @@
     <row r="15" spans="1:9">
       <c r="A15" s="23"/>
       <c r="B15" s="6" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="3"/>
@@ -3862,13 +4017,13 @@
     </row>
     <row r="16" spans="1:9" ht="39">
       <c r="A16" s="24" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>17</v>
@@ -3884,18 +4039,18 @@
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="39">
       <c r="A17" s="24" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>17</v>
@@ -3911,18 +4066,18 @@
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="39">
       <c r="A18" s="24" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>17</v>
@@ -3938,18 +4093,18 @@
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="26.25">
       <c r="A19" s="23" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>17</v>
@@ -3965,18 +4120,18 @@
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="4" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="25.5">
       <c r="A20" s="24" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>17</v>
@@ -3998,13 +4153,13 @@
     </row>
     <row r="21" spans="1:12" ht="25.5">
       <c r="A21" s="23" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>17</v>
@@ -4020,18 +4175,18 @@
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="26.25">
       <c r="A22" s="24" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>17</v>
@@ -4047,19 +4202,19 @@
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L22" s="17"/>
     </row>
     <row r="23" spans="1:12" ht="26.25">
       <c r="A23" s="24" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>17</v>
@@ -4075,18 +4230,18 @@
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="26.25">
       <c r="A24" s="24" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>17</v>
@@ -4102,18 +4257,18 @@
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="26.25">
       <c r="A25" s="23" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>17</v>
@@ -4129,18 +4284,18 @@
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="63.75">
       <c r="A26" s="23" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>17</v>
@@ -4156,18 +4311,18 @@
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="4" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="63.75">
       <c r="A27" s="23" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>17</v>
@@ -4183,19 +4338,19 @@
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="4" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="25.5">
       <c r="A28" s="23" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C28" s="9" t="str">
         <f ca="1">TEXT(EDATE(TODAY(),0)+1,"дд.ММ.гггг")&amp;" -- "&amp;TEXT(EDATE(TODAY(),2)-1,"дд.ММ.гггг")</f>
-        <v>21.12.2019 -- 19.02.2020</v>
+        <v>22.12.2019 -- 20.02.2020</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>17</v>
@@ -4218,17 +4373,17 @@
     </row>
     <row r="29" spans="1:12" ht="25.5">
       <c r="A29" s="23" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C29" s="9">
         <f ca="1">TODAY()</f>
-        <v>43819</v>
+        <v>43820</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
@@ -4241,7 +4396,7 @@
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="28" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J29" s="8" t="s">
         <v>19</v>
@@ -4250,17 +4405,17 @@
     </row>
     <row r="30" spans="1:12" ht="25.5">
       <c r="A30" s="23" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C30" s="9">
         <f ca="1">EDATE(TODAY(),2)</f>
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>8</v>
@@ -4273,7 +4428,7 @@
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="28" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J30" s="8" t="s">
         <v>20</v>
@@ -4282,7 +4437,7 @@
     </row>
     <row r="31" spans="1:12" ht="39">
       <c r="A31" s="23" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>18</v>
@@ -4292,8 +4447,8 @@
 "&amp;L39&amp;": "&amp;TEXT(EDATE(TODAY(),2)-1,"дд.ММ.гггг")&amp;" (or nearest smaller?)
 "&amp;L38&amp;": "&amp;TEXT(EDATE(TODAY(),0)+1,"дд.ММ.гггг")&amp; " to "&amp;L39</f>
         <v>radio-button set on 'RETURN'
-"RETURN DATE": 19.02.2020 (or nearest smaller?)
-"DEPARTURE DATE" : 21.12.2019 to "RETURN DATE"</v>
+"RETURN DATE": 20.02.2020 (or nearest smaller?)
+"DEPARTURE DATE" : 22.12.2019 to "RETURN DATE"</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>17</v>
@@ -4312,17 +4467,17 @@
     </row>
     <row r="32" spans="1:12" ht="51">
       <c r="A32" s="24" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C32" s="6" t="str">
         <f ca="1">"radio-button set on 'RETURN'
 "&amp;L39&amp;": " &amp;TEXT(EDATE(TODAY(),0)+1,"дд.ММ.гггг") &amp;" (or nearest bigger?)
 "&amp;L38&amp;": "&amp;L39&amp;"-1 (or nearest smaller?)"</f>
         <v>radio-button set on 'RETURN'
-"RETURN DATE": 21.12.2019 (or nearest bigger?)
+"RETURN DATE": 22.12.2019 (or nearest bigger?)
 "DEPARTURE DATE" : "RETURN DATE"-1 (or nearest smaller?)</v>
       </c>
       <c r="D32" s="3" t="s">
@@ -4339,15 +4494,15 @@
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="33" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="L32" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:19" ht="39" customHeight="1">
       <c r="A33" s="23" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>25</v>
@@ -4357,8 +4512,8 @@
 "&amp;L38&amp;": " &amp;TEXT(EDATE(TODAY(),0)+1,"дд.ММ.гггг") &amp;" (or nearest bigger?)
 "&amp;L39&amp;":"&amp;" "&amp;L38&amp;"+1"&amp;" to "&amp;TEXT(EDATE(TODAY(),2)-1,"дд.ММ.гггг")</f>
         <v>radio-button set on 'RETURN'
-"DEPARTURE DATE" : 21.12.2019 (or nearest bigger?)
-"RETURN DATE": "DEPARTURE DATE" +1 to 19.02.2020</v>
+"DEPARTURE DATE" : 22.12.2019 (or nearest bigger?)
+"RETURN DATE": "DEPARTURE DATE" +1 to 20.02.2020</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>17</v>
@@ -4375,26 +4530,26 @@
       <c r="H33" s="5"/>
       <c r="I33" s="11"/>
       <c r="L33" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="39">
       <c r="A34" s="23" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C34" s="11" t="str">
         <f ca="1">"radio-button set on 'RETURN'
 "&amp;L38&amp;":"&amp;TEXT(EDATE(TODAY(),0)+1,"дд.ММ.гггг")&amp;" (or nearest bigger?)
 "&amp;L39&amp;":"&amp;TEXT(EDATE(TODAY(),2),"дд.ММ.гггг")&amp;"(or nearest smaller?)"</f>
         <v>radio-button set on 'RETURN'
-"DEPARTURE DATE" :21.12.2019 (or nearest bigger?)
-"RETURN DATE":20.02.2020(or nearest smaller?)</v>
+"DEPARTURE DATE" :22.12.2019 (or nearest bigger?)
+"RETURN DATE":21.02.2020(or nearest smaller?)</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>8</v>
@@ -4407,22 +4562,22 @@
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="11" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="39">
       <c r="A35" s="23" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C35" s="11" t="str">
         <f ca="1">"radio-button set on 'RETURN'
 "&amp;L38&amp;": "&amp;TEXT(EDATE(TODAY(),0),"дд.ММ.гггг")&amp;" to "&amp;TEXT(EDATE(TODAY(),2)-1,"дд.ММ.гггг")&amp;" 
 "&amp;L39&amp;": "&amp;" "&amp;L38&amp;""</f>
         <v xml:space="preserve">radio-button set on 'RETURN'
-"DEPARTURE DATE" : 20.12.2019 to 19.02.2020 
+"DEPARTURE DATE" : 21.12.2019 to 20.02.2020 
 "RETURN DATE":  "DEPARTURE DATE" </v>
       </c>
       <c r="D35" s="3" t="s">
@@ -4449,21 +4604,21 @@
     </row>
     <row r="36" spans="1:19" ht="39">
       <c r="A36" s="24" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C36" s="11" t="str">
         <f ca="1">"radio-button set on 'RETURN'
 "&amp;L38&amp;": "&amp;TEXT(EDATE(TODAY(),0),"дд.ММ.гггг")&amp;" to "&amp;TEXT(EDATE(TODAY(),2)-1,"дд.ММ.гггг")&amp;" 
 "&amp;L39&amp;": "&amp;"smaller then "&amp;L38&amp;""</f>
         <v xml:space="preserve">radio-button set on 'RETURN'
-"DEPARTURE DATE" : 20.12.2019 to 19.02.2020 
+"DEPARTURE DATE" : 21.12.2019 to 20.02.2020 
 "RETURN DATE": smaller then "DEPARTURE DATE" </v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>8</v>
@@ -4476,7 +4631,7 @@
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="11" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="M36" s="27"/>
       <c r="N36" s="16"/>
@@ -4488,10 +4643,10 @@
     </row>
     <row r="37" spans="1:19" ht="39">
       <c r="A37" s="23" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C37" s="11" t="str">
         <f ca="1">"radio-button set on 'RETURN'
@@ -4499,7 +4654,7 @@
 "&amp;L39&amp;": "&amp;TEXT(EDATE(TODAY(),0)+1,"дд.ММ.гггг")&amp;" to "&amp;TEXT(EDATE(TODAY(),2)-1,"дд.ММ.гггг")&amp;""</f>
         <v>radio-button set on 'RETURN'
 "DEPARTURE DATE" : 
-"RETURN DATE": 21.12.2019 to 19.02.2020</v>
+"RETURN DATE": 22.12.2019 to 20.02.2020</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>17</v>
@@ -4515,7 +4670,7 @@
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="M37" s="14" t="s">
         <v>23</v>
@@ -4524,13 +4679,13 @@
         <v>19</v>
       </c>
       <c r="O37" s="13" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="P37" s="16" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="Q37" s="16" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R37" s="15" t="s">
         <v>24</v>
@@ -4541,17 +4696,17 @@
     </row>
     <row r="38" spans="1:19" ht="39">
       <c r="A38" s="23" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C38" s="11" t="str">
         <f ca="1">"radio-button set on 'RETURN'
 "&amp;L38&amp;":"&amp;TEXT(EDATE(TODAY(),0)+1,"дд.ММ.гггг")&amp;" (or nearest bigger?)
 "&amp;L39&amp;":"&amp;"  "&amp;L38</f>
         <v xml:space="preserve">radio-button set on 'RETURN'
-"DEPARTURE DATE" :21.12.2019 (or nearest bigger?)
+"DEPARTURE DATE" :22.12.2019 (or nearest bigger?)
 "RETURN DATE":  "DEPARTURE DATE" </v>
       </c>
       <c r="D38" s="3" t="s">
@@ -4573,39 +4728,39 @@
       </c>
       <c r="M38" s="7">
         <f ca="1">TODAY()-1</f>
-        <v>43818</v>
+        <v>43819</v>
       </c>
       <c r="N38" s="7">
         <f ca="1">TODAY()</f>
-        <v>43819</v>
+        <v>43820</v>
       </c>
       <c r="O38" s="7" t="str">
         <f ca="1">TEXT(EDATE(TODAY(),0)+1,"дд.ММ.гггг")</f>
-        <v>21.12.2019</v>
+        <v>22.12.2019</v>
       </c>
       <c r="P38" t="str">
         <f ca="1">TEXT(EDATE(TODAY(),0)+1,"дд.ММ.гггг")&amp;"-"&amp;TEXT(EDATE(TODAY(),2)-1,"дд.ММ.гггг")</f>
-        <v>21.12.2019-19.02.2020</v>
+        <v>22.12.2019-20.02.2020</v>
       </c>
       <c r="Q38" s="7">
         <f ca="1">EDATE(TODAY(),2)-1</f>
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="R38" s="7">
         <f ca="1">EDATE(TODAY(),2)</f>
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="S38" s="7">
         <f ca="1">EDATE(TODAY(),2)+1</f>
-        <v>43882</v>
+        <v>43883</v>
       </c>
     </row>
     <row r="39" spans="1:19">
       <c r="A39" s="23" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>115</v>
+        <v>187</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>29</v>
@@ -4630,13 +4785,13 @@
     </row>
     <row r="40" spans="1:19" ht="25.5">
       <c r="A40" s="23" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>30</v>
+        <v>188</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>17</v>
@@ -4658,16 +4813,16 @@
     </row>
     <row r="41" spans="1:19" ht="25.5">
       <c r="A41" s="23" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>135</v>
+        <v>189</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>8</v>
@@ -4680,7 +4835,7 @@
       </c>
       <c r="H41" s="5"/>
       <c r="I41" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="L41" s="2" t="s">
         <v>12</v>
@@ -4688,16 +4843,16 @@
     </row>
     <row r="42" spans="1:19" ht="25.5">
       <c r="A42" s="23" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>135</v>
+        <v>189</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>8</v>
@@ -4710,19 +4865,19 @@
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="L42" s="2"/>
     </row>
     <row r="43" spans="1:19" ht="25.5">
       <c r="A43" s="23" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>31</v>
+        <v>190</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>17</v>
@@ -4742,13 +4897,13 @@
     </row>
     <row r="44" spans="1:19" ht="25.5">
       <c r="A44" s="24" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>33</v>
+        <v>191</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>17</v>
@@ -4767,13 +4922,13 @@
     </row>
     <row r="45" spans="1:19" ht="25.5">
       <c r="A45" s="24" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>34</v>
+        <v>192</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>17</v>
@@ -4792,13 +4947,13 @@
     </row>
     <row r="46" spans="1:19" ht="25.5">
       <c r="A46" s="24" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>36</v>
+        <v>193</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>17</v>
@@ -4817,32 +4972,32 @@
     </row>
     <row r="49" spans="2:2" ht="111" customHeight="1">
       <c r="B49" s="26" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -4888,8 +5043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4910,7 +5065,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="21">
       <c r="A1" s="40" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="44" t="s">
@@ -4925,7 +5080,7 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="41" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B2" s="42"/>
       <c r="C2" s="42"/>
@@ -4944,7 +5099,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -4967,13 +5122,13 @@
     </row>
     <row r="4" spans="1:20" ht="76.5">
       <c r="A4" s="23" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -4989,7 +5144,7 @@
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="M4" s="14" t="s">
         <v>23</v>
@@ -4999,13 +5154,13 @@
         <v>19</v>
       </c>
       <c r="P4" s="13" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="Q4" s="16" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R4" s="16" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="S4" s="15" t="s">
         <v>24</v>
@@ -5016,13 +5171,13 @@
     </row>
     <row r="5" spans="1:20" ht="89.25">
       <c r="A5" s="23" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -5038,50 +5193,50 @@
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="L5" s="18" t="s">
         <v>27</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">TODAY()-1</f>
-        <v>43818</v>
+        <v>43819</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7">
         <f ca="1">TODAY()</f>
-        <v>43819</v>
+        <v>43820</v>
       </c>
       <c r="P5" s="7" t="str">
         <f ca="1">TEXT(EDATE(TODAY(),0)+1,"дд.ММ.гггг")</f>
-        <v>21.12.2019</v>
+        <v>22.12.2019</v>
       </c>
       <c r="Q5" t="str">
         <f ca="1">TEXT(EDATE(TODAY(),0)+1,"дд.ММ.гггг")&amp;"-"&amp;TEXT(EDATE(TODAY(),2)-1,"дд.ММ.гггг")</f>
-        <v>21.12.2019-19.02.2020</v>
+        <v>22.12.2019-20.02.2020</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">EDATE(TODAY(),2)-1</f>
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">EDATE(TODAY(),2)</f>
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">EDATE(TODAY(),2)+1</f>
-        <v>43882</v>
+        <v>43883</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="76.5">
       <c r="A6" s="23" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -5097,18 +5252,18 @@
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="89.25">
       <c r="A7" s="23" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -5124,36 +5279,36 @@
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="L7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M7" t="s">
+        <v>143</v>
+      </c>
+      <c r="N7" t="s">
+        <v>145</v>
+      </c>
+      <c r="O7" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="P7" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="L7" t="s">
-        <v>149</v>
-      </c>
-      <c r="M7" t="s">
-        <v>150</v>
-      </c>
-      <c r="N7" t="s">
-        <v>152</v>
-      </c>
-      <c r="O7" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="P7" s="25" t="s">
-        <v>153</v>
-      </c>
       <c r="Q7" s="25" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="226.5" customHeight="1">
       <c r="A8" s="23" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -5169,12 +5324,12 @@
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="4" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="B11" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -5252,427 +5407,427 @@
   <sheetData>
     <row r="3" spans="2:47" ht="55.5" customHeight="1">
       <c r="C3" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="K3" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="L3" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="M3" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="P3" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q3" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="R3" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="S3" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="T3" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="U3" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="V3" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="W3" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="X3" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y3" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z3" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA3" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB3" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC3" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD3" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE3" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF3" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG3" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH3" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="G3" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="H3" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="K3" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="L3" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="M3" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="N3" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="O3" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="P3" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q3" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="R3" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="S3" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="T3" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="U3" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="V3" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="W3" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="X3" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y3" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z3" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA3" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB3" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC3" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD3" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE3" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF3" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG3" s="29" t="s">
+      <c r="AI3" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ3" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="AH3" s="29" t="s">
+      <c r="AK3" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL3" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM3" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="AI3" s="29" t="s">
+      <c r="AN3" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO3" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP3" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="AJ3" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="AK3" s="29" t="s">
+      <c r="AQ3" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="AL3" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="AM3" s="29" t="s">
+      <c r="AR3" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="AN3" s="30" t="s">
+      <c r="AS3" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="AO3" s="30" t="s">
+      <c r="AT3" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="AP3" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="AQ3" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AR3" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="AS3" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="AT3" s="29" t="s">
-        <v>127</v>
-      </c>
       <c r="AU3" s="29" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="2:47">
       <c r="B5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H5" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J5" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="K5" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="L5" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="M5" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="N5" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="O5" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="P5" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="Q5" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R5" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="S5" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="T5" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="U5" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="V5" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="W5" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="X5" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="Y5" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="Z5" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AA5" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AB5" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AC5" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AD5" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AE5" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AF5" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AG5" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AH5" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AI5" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AJ5" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AK5" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AL5" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AM5" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AN5" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AO5" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AP5" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AQ5" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AR5" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AS5" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AT5" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AU5" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="2:47">
       <c r="B6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
       <c r="F6" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J6" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="K6" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="L6" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="M6" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="N6" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="O6" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="Q6" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R6" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="S6" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="T6" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="U6" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="V6" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="W6" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="X6" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="Y6" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="Z6" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AA6" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AB6" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AC6" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AD6" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AE6" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AF6" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AG6" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AH6" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AI6" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AJ6" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AK6" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AL6" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AM6" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AN6" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AO6" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AP6" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AQ6" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AR6" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AS6" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AT6" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AU6" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="2:47">
       <c r="B7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
       <c r="E7" s="31"/>
       <c r="F7" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H7" s="31"/>
       <c r="I7" s="31"/>
@@ -5682,103 +5837,103 @@
       <c r="M7" s="31"/>
       <c r="N7" s="31"/>
       <c r="O7" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="P7" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="Q7" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R7" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="S7" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="T7" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="U7" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="V7" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="W7" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="X7" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="Y7" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="Z7" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AA7" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AB7" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AC7" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AD7" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AE7" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AF7" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AG7" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AH7" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AI7" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AJ7" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AK7" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AL7" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AM7" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AN7" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AO7" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AP7" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AQ7" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AR7" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AS7" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AT7" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AU7" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="2:47">
@@ -5789,7 +5944,7 @@
       <c r="D8" s="31"/>
       <c r="E8" s="31"/>
       <c r="F8" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G8" s="31"/>
       <c r="H8" s="31"/>
@@ -5806,73 +5961,73 @@
       <c r="S8" s="31"/>
       <c r="T8" s="31"/>
       <c r="U8" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="V8" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="W8" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="X8" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="Y8" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="Z8" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AA8" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AB8" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AC8" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AD8" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AE8" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AF8" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AG8" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AH8" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AQ8" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AR8" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AS8" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AT8" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AU8" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="2:47">
       <c r="B9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="31"/>
       <c r="E9" s="31"/>
       <c r="F9" s="31"/>
       <c r="G9" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H9" s="31"/>
       <c r="I9" s="31"/>
@@ -5896,37 +6051,37 @@
       <c r="AA9" s="31"/>
       <c r="AB9" s="31"/>
       <c r="AC9" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AD9" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AE9" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AF9" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AG9" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AH9" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AQ9" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AR9" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AS9" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AT9" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AU9" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="2:47">
@@ -5964,83 +6119,83 @@
       <c r="AE10" s="31"/>
       <c r="AF10" s="31"/>
       <c r="AI10" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AJ10" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AK10" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AL10" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AM10" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AN10" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AO10" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AP10" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AQ10" s="36" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AR10" s="36" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AS10" s="36" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AT10" s="36" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AU10" s="36" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="2:47">
       <c r="B11" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="AQ11" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AR11" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AS11" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AT11" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AU11" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="2:47">
       <c r="B12" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="AQ12" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AR12" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AS12" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AT12" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AU12" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
